--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
   <si>
     <t>没有标记能为空的,都是不能为空的，下面是字段的类型,外键是指这个字段的值是链接另一张表的主键</t>
   </si>
@@ -186,12 +186,6 @@
     <t>外键方向字典表，int</t>
   </si>
   <si>
-    <t>账户</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
     <t>班级</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>考勤</t>
   </si>
   <si>
-    <t>账号根据身份证</t>
-  </si>
-  <si>
     <t>根据班级表外键ID</t>
   </si>
   <si>
@@ -219,12 +210,6 @@
     <t>已创建</t>
   </si>
   <si>
-    <t>student_account</t>
-  </si>
-  <si>
-    <t>密码是身份证后6为student_password</t>
-  </si>
-  <si>
     <t>group_id</t>
   </si>
   <si>
@@ -349,12 +334,6 @@
   </si>
   <si>
     <t>char，长度1</t>
-  </si>
-  <si>
-    <t>teacher_account</t>
-  </si>
-  <si>
-    <t>密码是身份证后6为teacher_password</t>
   </si>
   <si>
     <t>宿舍卫生表dorm</t>
@@ -779,15 +758,6 @@
     <t>logistics_nativePlace</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>logistics_account</t>
-  </si>
-  <si>
-    <t>密码是身份证后6为logistics_password</t>
-  </si>
-  <si>
     <t>教学计划表plan</t>
   </si>
   <si>
@@ -851,6 +821,39 @@
   </si>
   <si>
     <t>外键老师表</t>
+  </si>
+  <si>
+    <t>账户表</t>
+  </si>
+  <si>
+    <t>账户ID</t>
+  </si>
+  <si>
+    <t>账户</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>权限</t>
+  </si>
+  <si>
+    <t>账号根据身份证</t>
+  </si>
+  <si>
+    <t>密码是身份证后6为</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>user_account</t>
+  </si>
+  <si>
+    <t>user_password</t>
+  </si>
+  <si>
+    <t>user_grade</t>
   </si>
   <si>
     <r>
@@ -1388,10 +1391,10 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="medium">
         <color auto="1"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1401,10 +1404,10 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1658,7 +1661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1689,22 +1692,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -1720,6 +1720,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2076,10 +2082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:O120"/>
+  <dimension ref="A2:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="13.5"/>
@@ -2334,102 +2340,79 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="14.25"/>
-    <row r="15" ht="14.25" spans="2:6">
-      <c r="B15" s="10" t="s">
+    <row r="15" ht="14.25" spans="2:4">
+      <c r="B15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="9" t="s">
+    </row>
+    <row r="16" ht="14.25" spans="2:7">
+      <c r="B16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" spans="2:9">
-      <c r="B16" s="10"/>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="G16" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="9" t="s">
+    </row>
+    <row r="17" ht="14.25" spans="2:7">
+      <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I16" t="s">
+      <c r="D17" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" ht="14.25" spans="2:9">
-      <c r="B17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="G17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="5" t="s">
+    </row>
+    <row r="18" ht="14.25" spans="2:7">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="2:9">
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9">
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" t="s">
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="8:9">
       <c r="H23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
         <v>2</v>
@@ -2437,76 +2420,76 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="K25" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="2:11">
       <c r="B26" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="K26" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -2523,7 +2506,7 @@
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
         <v>27</v>
@@ -2543,21 +2526,21 @@
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:3">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" spans="2:14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="2:12">
       <c r="B31" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>10</v>
@@ -2575,7 +2558,7 @@
         <v>7</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>14</v>
@@ -2586,70 +2569,60 @@
       <c r="L31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" spans="2:14">
+    </row>
+    <row r="32" ht="14.25" spans="2:12">
       <c r="B32" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="I32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="J32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="K32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="L32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="14" t="s">
+    </row>
+    <row r="33" ht="14.25" spans="2:12">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
         <v>105</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M32" s="10"/>
-      <c r="N32" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="2:14">
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>110</v>
       </c>
       <c r="H33" t="s">
         <v>30</v>
@@ -2666,76 +2639,62 @@
       <c r="L33" t="s">
         <v>28</v>
       </c>
-      <c r="M33" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="13:14">
-      <c r="M34" t="s">
-        <v>28</v>
-      </c>
-      <c r="N34" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="38" ht="14.25" spans="2:6">
       <c r="B38" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="2:8">
       <c r="B39" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="2:8">
       <c r="B40" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="2:2">
@@ -2745,113 +2704,113 @@
     </row>
     <row r="42" ht="14.25" spans="2:8">
       <c r="B42" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="2:8">
       <c r="B43" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" ht="14.25"/>
     <row r="45" ht="14.25" spans="2:8">
       <c r="B45" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="2:8">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="15"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
     <row r="47" ht="14.25" spans="2:8">
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="15"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
     </row>
     <row r="48" ht="14.25" spans="2:8">
-      <c r="B48" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>151</v>
+      <c r="B48" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="7:8">
@@ -2864,62 +2823,62 @@
     </row>
     <row r="53" ht="14.25" spans="2:3">
       <c r="B53" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="2:9">
       <c r="B54" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I54" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="2:9">
       <c r="B55" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -2936,16 +2895,16 @@
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G56" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I56" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="8:8">
@@ -2955,68 +2914,68 @@
     </row>
     <row r="59" ht="14.25" spans="2:3">
       <c r="B59" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="2:10">
       <c r="B60" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="J60" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="2:10">
       <c r="B61" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="J61" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="62" spans="2:10">
@@ -3030,19 +2989,19 @@
         <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F62" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H62" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I62" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J62" t="s">
         <v>28</v>
@@ -3050,86 +3009,86 @@
     </row>
     <row r="66" ht="14.25" spans="2:8">
       <c r="B66" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H66" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="2:10">
       <c r="B67" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J67" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="2:10">
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D68" s="5"/>
-      <c r="E68" s="17" t="s">
-        <v>202</v>
+      <c r="E68" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>197</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="2:10">
       <c r="B69" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E69" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="2:10">
@@ -3140,7 +3099,7 @@
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E70" t="s">
         <v>27</v>
@@ -3149,7 +3108,7 @@
         <v>27</v>
       </c>
       <c r="H70" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I70" t="s">
         <v>27</v>
@@ -3160,62 +3119,62 @@
     </row>
     <row r="73" ht="14.25" spans="2:8">
       <c r="B73" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G73" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H73" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="2:9">
       <c r="B74" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="2:9">
       <c r="B75" s="9" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -3226,10 +3185,10 @@
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G76" t="s">
         <v>27</v>
@@ -3248,37 +3207,37 @@
     </row>
     <row r="79" ht="14.25" spans="4:5">
       <c r="D79" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" ht="14.25" spans="4:7">
-      <c r="D80" s="19" t="s">
-        <v>227</v>
+      <c r="D80" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>229</v>
+        <v>221</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="81" ht="14.25" spans="4:7">
       <c r="D81" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G81" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="G81" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3287,13 +3246,13 @@
         <v>27</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F82" t="s">
         <v>27</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="5:7">
@@ -3306,30 +3265,30 @@
     </row>
     <row r="85" ht="14.25" spans="2:3">
       <c r="B85" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" spans="2:15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" spans="2:13">
       <c r="B86" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>5</v>
@@ -3346,61 +3305,49 @@
       <c r="L86" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M86" s="16" t="s">
+      <c r="M86" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N86" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O86" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" spans="2:15">
+    </row>
+    <row r="87" ht="14.25" spans="2:13">
       <c r="B87" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I87" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="J87" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="K87" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="L87" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="M87" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="G87" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="L87" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="M87" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="N87" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="O87" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" spans="2:15">
+    </row>
+    <row r="88" ht="14.25" spans="2:13">
       <c r="B88" t="s">
         <v>27</v>
       </c>
@@ -3437,79 +3384,65 @@
       <c r="M88" t="s">
         <v>28</v>
       </c>
-      <c r="N88" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="O88" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="89" spans="14:15">
-      <c r="N89" t="s">
-        <v>28</v>
-      </c>
-      <c r="O89" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" spans="2:3">
+    </row>
+    <row r="91" spans="2:3">
       <c r="B91" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="2:9">
       <c r="B92" s="9" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>79</v>
+        <v>247</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="2:9">
       <c r="B93" s="9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="H93" s="11" t="s">
-        <v>69</v>
+        <v>253</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="2:9">
@@ -3517,7 +3450,7 @@
         <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D94" t="s">
         <v>30</v>
@@ -3526,16 +3459,16 @@
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G94" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="8:9">
@@ -3546,34 +3479,94 @@
         <v>27</v>
       </c>
     </row>
+    <row r="98" ht="14.25" spans="2:3">
+      <c r="B98" t="s">
+        <v>257</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" spans="2:5">
+      <c r="B99" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" spans="2:5">
+      <c r="B100" s="20"/>
+      <c r="C100" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E100" s="21"/>
+    </row>
+    <row r="101" ht="14.25" spans="2:5">
+      <c r="B101" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="110" spans="4:4">
-      <c r="D110" s="21" t="s">
-        <v>267</v>
+      <c r="D110" s="22" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="4:4">
-      <c r="D112" s="21" t="s">
-        <v>268</v>
+      <c r="D112" s="22" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="114" spans="4:4">
-      <c r="D114" s="21" t="s">
-        <v>269</v>
+      <c r="D114" s="22" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="4:4">
-      <c r="D116" s="21" t="s">
-        <v>270</v>
+      <c r="D116" s="22" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="4:4">
-      <c r="D118" s="21" t="s">
-        <v>271</v>
+      <c r="D118" s="22" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="120" spans="4:4">
-      <c r="D120" s="21" t="s">
-        <v>272</v>
+      <c r="D120" s="22" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23715" windowHeight="9375"/>
+    <workbookView windowWidth="18375" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271">
   <si>
     <t>没有标记能为空的,都是不能为空的，下面是字段的类型,外键是指这个字段的值是链接另一张表的主键</t>
   </si>
@@ -195,6 +195,9 @@
     <t>考勤</t>
   </si>
   <si>
+    <t>密码</t>
+  </si>
+  <si>
     <t>根据班级表外键ID</t>
   </si>
   <si>
@@ -204,21 +207,27 @@
     <t>考勤表外键</t>
   </si>
   <si>
+    <t>根据身份证后6位</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>dorm_id</t>
+  </si>
+  <si>
+    <t>present_id</t>
+  </si>
+  <si>
+    <t>student_passwrod</t>
+  </si>
+  <si>
     <t>方向表direction</t>
   </si>
   <si>
     <t>已创建</t>
   </si>
   <si>
-    <t>group_id</t>
-  </si>
-  <si>
-    <t>dorm_id</t>
-  </si>
-  <si>
-    <t>present_id</t>
-  </si>
-  <si>
     <t>方向字典ID</t>
   </si>
   <si>
@@ -334,6 +343,9 @@
   </si>
   <si>
     <t>char，长度1</t>
+  </si>
+  <si>
+    <t>teacher_passwrod</t>
   </si>
   <si>
     <t>宿舍卫生表dorm</t>
@@ -758,27 +770,13 @@
     <t>logistics_nativePlace</t>
   </si>
   <si>
+    <t>logistics_passwrod</t>
+  </si>
+  <si>
     <t>教学计划表plan</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>教学计划i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
+    <t>教学计划id</t>
   </si>
   <si>
     <t>教学计划概述</t>
@@ -823,106 +821,31 @@
     <t>外键老师表</t>
   </si>
   <si>
-    <t>账户表</t>
-  </si>
-  <si>
-    <t>账户ID</t>
-  </si>
-  <si>
-    <t>账户</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>权限</t>
-  </si>
-  <si>
-    <t>账号根据身份证</t>
-  </si>
-  <si>
-    <t>密码是身份证后6为</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>user_account</t>
-  </si>
-  <si>
-    <t>user_password</t>
-  </si>
-  <si>
-    <t>user_grade</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>①Cadmium - Sunshine (Feat. Frances Leone)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>②Arensky &amp; Joan Ember - Weakness (ft. Harley Bird)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>③Defqwop feat. Strix - Heart Afire (Rival Remix)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>④Eclypxe - Set In Stone (ft. William Yang)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>⑤DEAMN - Give Me Your Love</t>
-  </si>
-  <si>
-    <t>⑥Dreams2beats - Take My Hand</t>
+    <t>学习计划模板template</t>
+  </si>
+  <si>
+    <t>第几周</t>
+  </si>
+  <si>
+    <t>模板名</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>方向外键</t>
+  </si>
+  <si>
+    <t>template_id</t>
+  </si>
+  <si>
+    <t>template_week</t>
+  </si>
+  <si>
+    <t>template_name</t>
+  </si>
+  <si>
+    <t>template_content</t>
   </si>
 </sst>
 </file>
@@ -935,7 +858,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,9 +875,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -967,15 +890,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,9 +918,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,14 +933,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1027,16 +940,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,9 +956,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,6 +986,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1088,15 +1009,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,16 +1019,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1125,7 +1042,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,19 +1066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,25 +1084,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,13 +1120,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,67 +1174,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,15 +1318,85 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,45 +1418,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1478,39 +1426,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1519,10 +1434,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1531,133 +1446,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1692,6 +1607,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1722,13 +1640,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -2082,10 +1997,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M120"/>
+  <dimension ref="A2:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="13.5"/>
@@ -2149,7 +2064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:13">
+    <row r="8" spans="2:13">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2264,7 +2179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" ht="14.25" spans="2:13">
       <c r="B12" s="5" t="s">
         <v>43</v>
       </c>
@@ -2340,7 +2255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="2:4">
+    <row r="15" ht="14.25" spans="2:5">
       <c r="B15" s="9" t="s">
         <v>56</v>
       </c>
@@ -2350,25 +2265,25 @@
       <c r="D15" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" spans="2:7">
+      <c r="E15" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="2:5">
       <c r="B16" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G16" t="s">
+      <c r="E16" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="2:7">
+    <row r="17" ht="14.25" spans="2:5">
       <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
@@ -2378,11 +2293,8 @@
       <c r="D17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="2:7">
@@ -2395,72 +2307,91 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="6:7">
+      <c r="F19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="6:7">
+      <c r="F20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7">
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9">
+      <c r="G20" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="8:9">
       <c r="H23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" ht="14.25" spans="2:11">
       <c r="B24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" ht="14.25" spans="2:11">
       <c r="B25" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="2:11">
@@ -2468,25 +2399,25 @@
         <v>64</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>64</v>
@@ -2506,7 +2437,7 @@
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
         <v>27</v>
@@ -2526,21 +2457,21 @@
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:3">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" spans="2:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="2:13">
       <c r="B31" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>10</v>
@@ -2558,7 +2489,7 @@
         <v>7</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>14</v>
@@ -2569,43 +2500,49 @@
       <c r="L31" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" ht="14.25" spans="2:12">
+      <c r="M31" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="2:13">
       <c r="B32" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="2:12">
+        <v>107</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="2:13">
       <c r="B33" t="s">
         <v>27</v>
       </c>
@@ -2622,7 +2559,7 @@
         <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H33" t="s">
         <v>30</v>
@@ -2639,39 +2576,47 @@
       <c r="L33" t="s">
         <v>28</v>
       </c>
+      <c r="M33" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13">
+      <c r="M34" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="38" ht="14.25" spans="2:6">
       <c r="B38" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="2:8">
       <c r="B39" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="2:8">
@@ -2679,22 +2624,22 @@
         <v>65</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="2:2">
@@ -2704,113 +2649,113 @@
     </row>
     <row r="42" ht="14.25" spans="2:8">
       <c r="B42" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="2:8">
       <c r="B43" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="14.25"/>
     <row r="45" ht="14.25" spans="2:8">
       <c r="B45" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="2:8">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="14"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
     <row r="47" ht="14.25" spans="2:8">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="14"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
     </row>
     <row r="48" ht="14.25" spans="2:8">
-      <c r="B48" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>144</v>
       </c>
+      <c r="C48" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="G48" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="7:8">
@@ -2823,36 +2768,36 @@
     </row>
     <row r="53" ht="14.25" spans="2:3">
       <c r="B53" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="2:9">
       <c r="B54" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="2:9">
@@ -2860,25 +2805,25 @@
         <v>66</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -2895,16 +2840,16 @@
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G56" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I56" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="8:8">
@@ -2914,68 +2859,68 @@
     </row>
     <row r="59" ht="14.25" spans="2:3">
       <c r="B59" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="2:10">
       <c r="B60" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="2:10">
       <c r="B61" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="2:10">
@@ -2989,19 +2934,19 @@
         <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F62" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G62" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H62" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I62" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J62" t="s">
         <v>28</v>
@@ -3009,86 +2954,86 @@
     </row>
     <row r="66" ht="14.25" spans="2:8">
       <c r="B66" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H66" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="2:10">
       <c r="B67" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="2:10">
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D68" s="5"/>
-      <c r="E68" s="16" t="s">
-        <v>195</v>
+      <c r="E68" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="2:10">
       <c r="B69" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E69" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="2:10">
@@ -3099,7 +3044,7 @@
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E70" t="s">
         <v>27</v>
@@ -3108,7 +3053,7 @@
         <v>27</v>
       </c>
       <c r="H70" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I70" t="s">
         <v>27</v>
@@ -3119,62 +3064,62 @@
     </row>
     <row r="73" ht="14.25" spans="2:8">
       <c r="B73" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G73" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H73" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="2:9">
       <c r="B74" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="2:9">
       <c r="B75" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -3185,10 +3130,10 @@
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E76" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G76" t="s">
         <v>27</v>
@@ -3207,37 +3152,37 @@
     </row>
     <row r="79" ht="14.25" spans="4:5">
       <c r="D79" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E79" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" ht="14.25" spans="4:7">
-      <c r="D80" s="18" t="s">
-        <v>220</v>
+      <c r="D80" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>222</v>
+        <v>225</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="81" ht="14.25" spans="4:7">
       <c r="D81" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G81" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G81" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3246,13 +3191,13 @@
         <v>27</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F82" t="s">
         <v>27</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="5:7">
@@ -3265,30 +3210,30 @@
     </row>
     <row r="85" ht="14.25" spans="2:3">
       <c r="B85" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C85" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" spans="2:13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" spans="2:14">
       <c r="B86" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>5</v>
@@ -3305,49 +3250,55 @@
       <c r="L86" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M86" s="15" t="s">
+      <c r="M86" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N86" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="2:13">
+    <row r="87" ht="14.25" spans="2:14">
       <c r="B87" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="M87" s="23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" spans="2:13">
+        <v>243</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N87" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="2:14">
       <c r="B88" t="s">
         <v>27</v>
       </c>
@@ -3381,68 +3332,76 @@
       <c r="L88" t="s">
         <v>28</v>
       </c>
-      <c r="M88" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3">
+      <c r="M88" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="N88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" spans="13:13">
+      <c r="M89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" spans="2:3">
       <c r="B91" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C91" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="2:9">
-      <c r="B92" s="9" t="s">
-        <v>242</v>
+      <c r="B92" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="H92" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H92" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I92" s="10" t="s">
-        <v>74</v>
+      <c r="I92" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="2:9">
       <c r="B93" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="H93" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H93" s="11" t="s">
         <v>64</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="2:9">
@@ -3450,7 +3409,7 @@
         <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D94" t="s">
         <v>30</v>
@@ -3459,16 +3418,16 @@
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G94" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="8:9">
@@ -3479,94 +3438,60 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="2:3">
-      <c r="B98" t="s">
-        <v>257</v>
-      </c>
+    <row r="98" spans="3:5">
       <c r="C98" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" spans="2:5">
-      <c r="B99" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>259</v>
+        <v>262</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7">
+      <c r="C99" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" spans="2:5">
-      <c r="B100" s="20"/>
-      <c r="C100" s="20" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7">
+      <c r="C100" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E100" s="21"/>
-    </row>
-    <row r="101" ht="14.25" spans="2:5">
-      <c r="B101" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" t="s">
-        <v>28</v>
-      </c>
-      <c r="D102" t="s">
-        <v>28</v>
-      </c>
-      <c r="E102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="4:4">
-      <c r="D110" s="22" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="112" spans="4:4">
-      <c r="D112" s="22" t="s">
+      <c r="E100" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="114" spans="4:4">
-      <c r="D114" s="22" t="s">
+      <c r="F100" s="22" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="116" spans="4:4">
-      <c r="D116" s="22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="118" spans="4:4">
-      <c r="D118" s="22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="120" spans="4:4">
-      <c r="D120" s="22" t="s">
-        <v>273</v>
+      <c r="G100" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6">
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -854,9 +854,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -890,14 +890,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,8 +919,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,6 +935,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -940,9 +950,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,8 +973,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,22 +1004,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1009,9 +1011,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,15 +1027,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,19 +1042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,7 +1054,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,25 +1090,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,19 +1126,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,55 +1174,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,11 +1329,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,16 +1354,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1379,6 +1385,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1387,42 +1404,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,10 +1434,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1446,137 +1446,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1605,9 +1605,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1999,8 +1996,8 @@
   <sheetPr/>
   <dimension ref="A2:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="13.5"/>
@@ -2064,7 +2061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" ht="14.25" spans="2:13">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2255,6 +2252,7 @@
         <v>30</v>
       </c>
     </row>
+    <row r="14" ht="14.25"/>
     <row r="15" ht="14.25" spans="2:5">
       <c r="B15" s="9" t="s">
         <v>56</v>
@@ -2265,11 +2263,11 @@
       <c r="D15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="2:5">
+    <row r="16" spans="2:5">
       <c r="B16" s="9" t="s">
         <v>60</v>
       </c>
@@ -2279,11 +2277,11 @@
       <c r="D16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="2:5">
+    <row r="17" spans="2:5">
       <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
@@ -2293,7 +2291,7 @@
       <c r="D17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2326,10 +2324,10 @@
       </c>
     </row>
     <row r="20" ht="14.25" spans="6:7">
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2385,9 +2383,9 @@
       <c r="F25" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="17" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="16" t="s">
         <v>83</v>
       </c>
       <c r="K25" s="8" t="s">
@@ -2500,11 +2498,11 @@
       <c r="L31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M31" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="2:13">
+    <row r="32" spans="2:13">
       <c r="B32" s="9" t="s">
         <v>91</v>
       </c>
@@ -2517,13 +2515,13 @@
       <c r="E32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="13" t="s">
         <v>103</v>
       </c>
       <c r="I32" s="9" t="s">
@@ -2538,11 +2536,11 @@
       <c r="L32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="2:13">
+    <row r="33" spans="2:13">
       <c r="B33" t="s">
         <v>27</v>
       </c>
@@ -2576,7 +2574,7 @@
       <c r="L33" t="s">
         <v>28</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2689,7 +2687,7 @@
       <c r="G43" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="11" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2718,37 +2716,37 @@
       </c>
     </row>
     <row r="46" ht="14.25" spans="2:8">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="15"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
     <row r="47" ht="14.25" spans="2:8">
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="15"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
     </row>
     <row r="48" ht="14.25" spans="2:8">
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="11" t="s">
         <v>148</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -2790,13 +2788,13 @@
       <c r="F54" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="10" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2976,7 +2974,7 @@
       <c r="D67" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="16" t="s">
         <v>193</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -2998,13 +2996,13 @@
         <v>198</v>
       </c>
       <c r="D68" s="5"/>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="16" t="s">
         <v>199</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="17" t="s">
         <v>201</v>
       </c>
       <c r="I68" s="5" t="s">
@@ -3024,7 +3022,7 @@
       <c r="D69" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="5"/>
@@ -3159,7 +3157,7 @@
       </c>
     </row>
     <row r="80" ht="14.25" spans="4:7">
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="18" t="s">
         <v>224</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -3168,7 +3166,7 @@
       <c r="F80" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="G80" s="19" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3182,7 +3180,7 @@
       <c r="F81" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G81" s="20" t="s">
+      <c r="G81" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3250,14 +3248,14 @@
       <c r="L86" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M86" s="10" t="s">
+      <c r="M86" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N86" s="16" t="s">
+      <c r="N86" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="2:14">
+    <row r="87" spans="2:14">
       <c r="B87" s="5" t="s">
         <v>233</v>
       </c>
@@ -3291,14 +3289,14 @@
       <c r="L87" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="M87" s="10" t="s">
+      <c r="M87" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N87" s="23" t="s">
+      <c r="N87" s="22" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="2:14">
+    <row r="88" spans="2:14">
       <c r="B88" t="s">
         <v>27</v>
       </c>
@@ -3332,14 +3330,14 @@
       <c r="L88" t="s">
         <v>28</v>
       </c>
-      <c r="M88" s="10" t="s">
+      <c r="M88" s="8" t="s">
         <v>245</v>
       </c>
       <c r="N88" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="13:13">
+    <row r="89" spans="13:13">
       <c r="M89" t="s">
         <v>28</v>
       </c>
@@ -3353,7 +3351,7 @@
       </c>
     </row>
     <row r="92" ht="14.25" spans="2:9">
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="20" t="s">
         <v>247</v>
       </c>
       <c r="C92" s="9" t="s">
@@ -3371,10 +3369,10 @@
       <c r="G92" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H92" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="I92" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3397,7 +3395,7 @@
       <c r="G93" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="H93" s="10" t="s">
         <v>64</v>
       </c>
       <c r="I93" s="9" t="s">
@@ -3438,7 +3436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="3:5">
+    <row r="98" ht="14.25" spans="3:5">
       <c r="C98" t="s">
         <v>262</v>
       </c>
@@ -3446,7 +3444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="3:7">
+    <row r="99" ht="14.25" spans="3:7">
       <c r="C99" s="5" t="s">
         <v>230</v>
       </c>
@@ -3456,14 +3454,14 @@
       <c r="E99" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F99" s="22" t="s">
+      <c r="F99" s="21" t="s">
         <v>265</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="3:7">
+    <row r="100" ht="14.25" spans="3:7">
       <c r="C100" s="5" t="s">
         <v>267</v>
       </c>
@@ -3473,7 +3471,7 @@
       <c r="E100" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F100" s="22" t="s">
+      <c r="F100" s="21" t="s">
         <v>270</v>
       </c>
       <c r="G100" s="5" t="s">
